--- a/Kadarkuti_Marton/_ERETTSEGI_GYAKR/23okt25/dron.xlsx
+++ b/Kadarkuti_Marton/_ERETTSEGI_GYAKR/23okt25/dron.xlsx
@@ -5,16 +5,19 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://tatarefi-my.sharepoint.com/personal/kadarkuti_marton_tata-refi_hu/Documents/Dokumentumok/fakt2023/Kadarkuti_Marton/_ERETTSEGI_GYAKR/23okt25/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\merkur07\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="37" documentId="8_{A5EFFD2A-D5F0-4EE7-BFFF-06592A7549D5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{3AFC2A42-349D-4838-9537-4A428A3BEF7E}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A9304CB-B179-49F2-9EFF-2AF65A50ADBE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21600" windowHeight="9525" xr2:uid="{1ABDA61B-F38A-48E4-9A87-885E58369C9D}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="11385" xr2:uid="{1ABDA61B-F38A-48E4-9A87-885E58369C9D}"/>
   </bookViews>
   <sheets>
     <sheet name="tesztrepülés" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">tesztrepülés!$A$1:$R$201</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -25,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="17">
   <si>
     <t>Idő (mp)</t>
   </si>
@@ -76,9 +79,6 @@
   </si>
   <si>
     <t>SEGÉD</t>
-  </si>
-  <si>
-    <t>20.feladat</t>
   </si>
 </sst>
 </file>
@@ -268,7 +268,49 @@
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
     <cellStyle name="Százalék" xfId="1" builtinId="5"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="26">
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -286,6 +328,133 @@
       <fill>
         <patternFill>
           <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="6" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="7" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="8" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="9" tint="0.39994506668294322"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -2302,10 +2471,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4FC9B9F0-A5C8-4018-ABF8-6528402E8919}">
-  <dimension ref="A1:T201"/>
+  <sheetPr>
+    <pageSetUpPr fitToPage="1"/>
+  </sheetPr>
+  <dimension ref="A1:S201"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="T2" sqref="T2"/>
+      <selection sqref="A1:R201"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2321,7 +2493,7 @@
     <col min="14" max="18" width="4.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:20" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" ht="29.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="13" t="s">
         <v>0</v>
       </c>
@@ -2343,11 +2515,8 @@
       <c r="S1" t="s">
         <v>16</v>
       </c>
-      <c r="T1" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="2" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A2" s="3">
         <v>1</v>
       </c>
@@ -2373,7 +2542,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="3" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A3" s="3">
         <v>2</v>
       </c>
@@ -2406,7 +2575,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="4" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A4" s="3">
         <v>3</v>
       </c>
@@ -2436,7 +2605,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="5" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A5" s="3">
         <v>4</v>
       </c>
@@ -2466,7 +2635,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="6" spans="1:20" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="3">
         <v>5</v>
       </c>
@@ -2502,7 +2671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:20" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A7" s="3">
         <v>6</v>
       </c>
@@ -2532,7 +2701,7 @@
         <v>K</v>
       </c>
     </row>
-    <row r="8" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="3">
         <v>7</v>
       </c>
@@ -2562,7 +2731,7 @@
         <v>889</v>
       </c>
     </row>
-    <row r="9" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="3">
         <v>8</v>
       </c>
@@ -2595,7 +2764,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="10" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="3">
         <v>9</v>
       </c>
@@ -2629,7 +2798,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="11" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="3">
         <v>10</v>
       </c>
@@ -2656,7 +2825,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="3">
         <v>11</v>
       </c>
@@ -2683,7 +2852,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="13" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A13" s="3">
         <v>12</v>
       </c>
@@ -2706,7 +2875,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A14" s="3">
         <v>13</v>
       </c>
@@ -2729,7 +2898,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A15" s="3">
         <v>14</v>
       </c>
@@ -2752,7 +2921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:20" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A16" s="3">
         <v>15</v>
       </c>
@@ -6903,7 +7072,7 @@
         <v>-4</v>
       </c>
       <c r="D196" s="4">
-        <f t="shared" ref="D196:D202" si="11">MOD(D195+C196,360)</f>
+        <f t="shared" ref="D196:D201" si="11">MOD(D195+C196,360)</f>
         <v>73</v>
       </c>
       <c r="E196" s="4" t="str">
@@ -7032,18 +7201,52 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="C2:C201">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="16" priority="10" operator="greaterThan">
       <formula>180</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="15" priority="9" operator="lessThan">
       <formula>-180</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="8" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
+  <conditionalFormatting sqref="E2:E201">
+    <cfRule type="colorScale" priority="7">
+      <colorScale>
+        <cfvo type="min"/>
+        <cfvo type="percentile" val="50"/>
+        <cfvo type="max"/>
+        <color rgb="FFF8696B"/>
+        <color rgb="FFFFEB84"/>
+        <color rgb="FF63BE7B"/>
+      </colorScale>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="13" priority="6" operator="equal">
+      <formula>"K"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="12" priority="5" operator="equal">
+      <formula>"Ny"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="11" priority="4" operator="equal">
+      <formula>"É"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="10" priority="3" operator="equal">
+      <formula>"D"</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="I3:I6">
+    <cfRule type="expression" dxfId="9" priority="2">
+      <formula>I3=MAX($I$3:$I$6)</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="N3:R9">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
+      <formula>$K$7</formula>
+    </cfRule>
+  </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="16" orientation="landscape" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>
@@ -7276,20 +7479,20 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <_activity xmlns="84647b37-4f80-4447-b526-19b3eac6576c" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
   <Edit>DocumentLibraryForm</Edit>
   <New>DocumentLibraryForm</New>
 </FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <_activity xmlns="84647b37-4f80-4447-b526-19b3eac6576c" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -7312,14 +7515,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61265EFF-5B37-4698-8A52-4DC415B8D92B}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E055F92C-C250-4996-B6A6-5C99B7C06F93}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
@@ -7334,4 +7529,12 @@
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{61265EFF-5B37-4698-8A52-4DC415B8D92B}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>